--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.544</v>
+        <v>-12.091</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.386</v>
+        <v>5.305</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.319999999999999</v>
+        <v>5.735</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.114</v>
+        <v>5.394</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.684</v>
+        <v>-11.742</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.196</v>
+        <v>9.270999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.989999999999999</v>
+        <v>8.000999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -842,7 +842,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.998</v>
+        <v>-12.704</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -856,10 +856,10 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.29</v>
+        <v>6.176999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-14.118</v>
+        <v>-13.959</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.726</v>
+        <v>6.203</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.964</v>
+        <v>-13.203</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.843999999999999</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.864</v>
+        <v>-13.165</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.464</v>
+        <v>-12.804</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.614</v>
+        <v>-12.702</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.648</v>
+        <v>9.4</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.266</v>
+        <v>-12.752</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.972</v>
+        <v>-11.22</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.674</v>
+        <v>-11.02</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.42</v>
+        <v>-11.303</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.542</v>
+        <v>6.293</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.748</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.772</v>
+        <v>-13.222</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,10 +1400,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.473999999999999</v>
+        <v>5.575</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.724</v>
+        <v>-13.385</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.944</v>
+        <v>4.914</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.546</v>
+        <v>-12.8</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.428</v>
+        <v>5.936000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.407999999999999</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.234</v>
+        <v>-12.886</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.382</v>
+        <v>-12.453</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.116</v>
+        <v>5.566</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.186</v>
+        <v>5.523999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.818</v>
+        <v>-13.298</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.146</v>
+        <v>5.545</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.964</v>
+        <v>-11.087</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.82</v>
+        <v>5.409000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.722</v>
+        <v>5.893000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
